--- a/data/financial_statements/sofp/INVH.xlsx
+++ b/data/financial_statements/sofp/INVH.xlsx
@@ -14,9 +14,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -110,9 +197,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -165,12 +249,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -475,114 +556,114 @@
   <sheetData>
     <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42004</v>
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>300312000</v>
+        <v>516000000</v>
       </c>
       <c r="C2">
-        <v>272708000</v>
+        <v>480000000</v>
       </c>
       <c r="D2">
-        <v>467457000</v>
+        <v>683000000</v>
       </c>
       <c r="E2">
-        <v>610166000</v>
+        <v>819000000</v>
       </c>
       <c r="F2">
-        <v>569663000</v>
+        <v>821000000</v>
       </c>
       <c r="G2">
         <v>126168000</v>
@@ -649,8 +730,8 @@
       </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B3">
         <v>300312000</v>
@@ -732,23 +813,23 @@
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B4">
-        <v>17108960000</v>
+        <v>30000000</v>
       </c>
       <c r="C4">
-        <v>17125190000</v>
+        <v>28000000</v>
       </c>
       <c r="D4">
-        <v>17025640000</v>
+        <v>27000000</v>
       </c>
       <c r="E4">
-        <v>16935320000</v>
+        <v>28000000</v>
       </c>
       <c r="F4">
-        <v>16653450000</v>
+        <v>13000000</v>
       </c>
       <c r="G4">
         <v>16333320000</v>
@@ -809,23 +890,23 @@
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B5">
-        <v>258207000</v>
+        <v>258000000</v>
       </c>
       <c r="C5">
-        <v>258207000</v>
+        <v>258000000</v>
       </c>
       <c r="D5">
-        <v>258207000</v>
+        <v>258000000</v>
       </c>
       <c r="E5">
-        <v>258207000</v>
+        <v>258000000</v>
       </c>
       <c r="F5">
-        <v>258207000</v>
+        <v>258000000</v>
       </c>
       <c r="G5">
         <v>258207000</v>
@@ -889,23 +970,23 @@
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>1010932000</v>
+        <v>135000000</v>
       </c>
       <c r="C6">
-        <v>850884000</v>
+        <v>129000000</v>
       </c>
       <c r="D6">
-        <v>792918000</v>
+        <v>118000000</v>
       </c>
       <c r="E6">
-        <v>734151000</v>
+        <v>94000000</v>
       </c>
       <c r="F6">
-        <v>769249000</v>
+        <v>77000000</v>
       </c>
       <c r="G6">
         <v>766912000</v>
@@ -972,8 +1053,8 @@
       </c>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B7">
         <v>18378100000</v>
@@ -1055,23 +1136,23 @@
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B8">
-        <v>18678410000</v>
+        <v>18678000000</v>
       </c>
       <c r="C8">
-        <v>18506980000</v>
+        <v>18507000000</v>
       </c>
       <c r="D8">
-        <v>18544220000</v>
+        <v>18544000000</v>
       </c>
       <c r="E8">
-        <v>18537850000</v>
+        <v>18538000000</v>
       </c>
       <c r="F8">
-        <v>18250570000</v>
+        <v>18251000000</v>
       </c>
       <c r="G8">
         <v>17484610000</v>
@@ -1147,8 +1228,8 @@
       </c>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B9">
         <v>2517272000</v>
@@ -1167,8 +1248,8 @@
       </c>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B10">
         <v>325967000</v>
@@ -1250,8 +1331,8 @@
       </c>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B11">
         <v>1000000</v>
@@ -1294,8 +1375,8 @@
       </c>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B12">
         <v>2843239000</v>
@@ -1377,23 +1458,23 @@
       </c>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B13">
-        <v>5409039000</v>
+        <v>7768000000</v>
       </c>
       <c r="C13">
-        <v>5408985000</v>
+        <v>7770000000</v>
       </c>
       <c r="D13">
-        <v>6100900000</v>
+        <v>7038000000</v>
       </c>
       <c r="E13">
-        <v>6241852000</v>
+        <v>5802000000</v>
       </c>
       <c r="F13">
-        <v>7044911000</v>
+        <v>7649000000</v>
       </c>
       <c r="G13">
         <v>8176662000</v>
@@ -1460,8 +1541,8 @@
       </c>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -1480,23 +1561,23 @@
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B15">
-        <v>79787000</v>
+        <v>563000000</v>
       </c>
       <c r="C15">
-        <v>61736000</v>
+        <v>454000000</v>
       </c>
       <c r="D15">
-        <v>119921000</v>
+        <v>446000000</v>
       </c>
       <c r="E15">
-        <v>341583000</v>
+        <v>681000000</v>
       </c>
       <c r="F15">
-        <v>453448000</v>
+        <v>893000000</v>
       </c>
       <c r="G15">
         <v>470879000</v>
@@ -1563,8 +1644,8 @@
       </c>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B16">
         <v>5488826000</v>
@@ -1646,23 +1727,23 @@
       </c>
     </row>
     <row r="17" spans="1:30">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B17">
-        <v>8332065000</v>
+        <v>8332000000</v>
       </c>
       <c r="C17">
-        <v>8224995000</v>
+        <v>8225000000</v>
       </c>
       <c r="D17">
-        <v>8319090000</v>
+        <v>8319000000</v>
       </c>
       <c r="E17">
-        <v>8699042000</v>
+        <v>8699000000</v>
       </c>
       <c r="F17">
-        <v>8727321000</v>
+        <v>8727000000</v>
       </c>
       <c r="G17">
         <v>8864935000</v>
@@ -1738,8 +1819,8 @@
       </c>
     </row>
     <row r="18" spans="1:30">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B18">
         <v>11133260000</v>
@@ -1827,8 +1908,8 @@
       </c>
     </row>
     <row r="19" spans="1:30">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -1847,23 +1928,23 @@
       </c>
     </row>
     <row r="20" spans="1:30">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B20">
-        <v>6114000</v>
+        <v>6000000</v>
       </c>
       <c r="C20">
-        <v>6104000</v>
+        <v>6000000</v>
       </c>
       <c r="D20">
-        <v>6098000</v>
+        <v>6000000</v>
       </c>
       <c r="E20">
-        <v>6010000</v>
+        <v>6000000</v>
       </c>
       <c r="F20">
-        <v>5949000</v>
+        <v>6000000</v>
       </c>
       <c r="G20">
         <v>5687000</v>
@@ -1936,23 +2017,23 @@
       </c>
     </row>
     <row r="21" spans="1:30">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B21">
-        <v>-916138000</v>
+        <v>-916000000</v>
       </c>
       <c r="C21">
-        <v>-860275000</v>
+        <v>-860000000</v>
       </c>
       <c r="D21">
-        <v>-836494000</v>
+        <v>-836000000</v>
       </c>
       <c r="E21">
-        <v>-794869000</v>
+        <v>-795000000</v>
       </c>
       <c r="F21">
-        <v>-767232000</v>
+        <v>-767000000</v>
       </c>
       <c r="G21">
         <v>-737444000</v>
@@ -2010,8 +2091,8 @@
       </c>
     </row>
     <row r="22" spans="1:30">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -2030,8 +2111,8 @@
       </c>
     </row>
     <row r="23" spans="1:30">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="Y23">
         <v>1957423000</v>
@@ -2053,23 +2134,23 @@
       </c>
     </row>
     <row r="24" spans="1:30">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B24">
-        <v>10346350000</v>
+        <v>10315000000</v>
       </c>
       <c r="C24">
-        <v>10281990000</v>
+        <v>10239000000</v>
       </c>
       <c r="D24">
-        <v>10225130000</v>
+        <v>10183000000</v>
       </c>
       <c r="E24">
-        <v>9838804000</v>
+        <v>9798000000</v>
       </c>
       <c r="F24">
-        <v>9523245000</v>
+        <v>9483000000</v>
       </c>
       <c r="G24">
         <v>8619676000</v>
@@ -2136,23 +2217,23 @@
       </c>
     </row>
     <row r="25" spans="1:30">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B25">
-        <v>10346350000</v>
+        <v>10315000000</v>
       </c>
       <c r="C25">
-        <v>10281990000</v>
+        <v>10239000000</v>
       </c>
       <c r="D25">
-        <v>10225130000</v>
+        <v>10183000000</v>
       </c>
       <c r="E25">
-        <v>9838804000</v>
+        <v>9798000000</v>
       </c>
       <c r="F25">
-        <v>9523245000</v>
+        <v>9483000000</v>
       </c>
       <c r="G25">
         <v>8619676000</v>
@@ -2228,8 +2309,8 @@
       </c>
     </row>
     <row r="26" spans="1:30">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B26">
         <v>18678410000</v>
@@ -2320,8 +2401,8 @@
       </c>
     </row>
     <row r="27" spans="1:30">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B27">
         <v>611410000</v>
@@ -2394,8 +2475,8 @@
       </c>
     </row>
     <row r="28" spans="1:30">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B28">
         <v>10088140000</v>
@@ -2477,23 +2558,23 @@
       </c>
     </row>
     <row r="29" spans="1:30">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B29">
-        <v>5109727000</v>
+        <v>7253000000</v>
       </c>
       <c r="C29">
-        <v>5138277000</v>
+        <v>7292000000</v>
       </c>
       <c r="D29">
-        <v>6468443000</v>
+        <v>7190000000</v>
       </c>
       <c r="E29">
-        <v>7847686000</v>
+        <v>7199000000</v>
       </c>
       <c r="F29">
-        <v>6660248000</v>
+        <v>7013000000</v>
       </c>
       <c r="G29">
         <v>9481494000</v>
@@ -2560,23 +2641,23 @@
       </c>
     </row>
     <row r="30" spans="1:30">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B30">
-        <v>5410039000</v>
+        <v>7769000000</v>
       </c>
       <c r="C30">
-        <v>5410985000</v>
+        <v>7772000000</v>
       </c>
       <c r="D30">
-        <v>6935900000</v>
+        <v>7873000000</v>
       </c>
       <c r="E30">
-        <v>8457852000</v>
+        <v>8018000000</v>
       </c>
       <c r="F30">
-        <v>7229911000</v>
+        <v>7834000000</v>
       </c>
       <c r="G30">
         <v>9607662000</v>
